--- a/templates/AutomationOrg/CRUD-Order Number Assign.xlsx
+++ b/templates/AutomationOrg/CRUD-Order Number Assign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkakade\Provar\Workspace\System Setup\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ACD00-3D01-4521-89F7-CDB14B34E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC993A-B2FC-41DC-BAF7-395A3F9260E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="2328" windowWidth="15912" windowHeight="8964" activeTab="1" xr2:uid="{D46CA581-DC55-41AF-98C5-1427A95DE397}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D46CA581-DC55-41AF-98C5-1427A95DE397}"/>
   </bookViews>
   <sheets>
     <sheet name="Create_Order Number Assign" sheetId="1" r:id="rId1"/>
@@ -459,12 +459,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -486,7 +490,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -495,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
